--- a/tools/omelox-excel/template/lang_client.xlsx
+++ b/tools/omelox-excel/template/lang_client.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\develop\project\gamingcity\dev-tool\excel2data\fishery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\develop\project\gamingcity\gamecity-server-omelox\shared\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4EE7E9-6860-4E58-AF0C-4984E44C7AA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2525ED10-4A0A-4CF3-BBCE-7D5BBC278DE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>lang</t>
   </si>
   <si>
-    <t>model:模型；data：数据配置；const：常量配置；lang：语言配置</t>
-  </si>
-  <si>
     <t>content</t>
   </si>
   <si>
@@ -101,6 +98,10 @@
   <si>
     <t>1:双端共享2：服务器专用3：客户端专用</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>model：模型；data：数据配置；const：常量配置；lang：语言配置;  error：错误码;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -118,6 +119,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -125,6 +127,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -132,30 +135,35 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -344,17 +352,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -760,7 +768,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -794,15 +802,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:3" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="20">
+        <v>3</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="22">
-        <v>3</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
@@ -812,141 +820,154 @@
       <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
+      <c r="C5" s="18" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
     </row>
     <row r="8" spans="1:3" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
@@ -963,19 +984,6 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1003,13 +1011,13 @@
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -1036,13 +1044,13 @@
     </row>
     <row r="2" spans="1:25" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1069,35 +1077,35 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
